--- a/genshin/428540360645766280_2020-08-28_19-55-28.xlsx
+++ b/genshin/428540360645766280_2020-08-28_19-55-28.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-08-30 12:35:07</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44073.52438657408</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-08-30 11:43:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44073.48869212963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>3427519132</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-08-29 23:47:12</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44072.99111111111</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>3424922508</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-08-29 17:48:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44072.74196759259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>3427523034</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-08-29 15:54:57</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44072.66315972222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-08-29 13:49:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44072.57631944444</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>3427525995</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-08-29 12:25:12</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44072.5175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3427519461</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-08-29 12:25:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44072.51737268519</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>3427519461</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-08-29 12:24:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44072.51667824074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1198,10 +1196,8 @@
           <t>3427376648</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-08-29 12:14:57</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44072.51038194444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1276,10 +1272,8 @@
           <t>3427525995</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-08-29 12:03:20</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44072.50231481482</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1343,10 +1337,8 @@
           <t>3427526624</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:36:11</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44072.48346064815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1418,10 +1410,8 @@
           <t>3427526142</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44072.48325231481</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1493,10 +1483,8 @@
           <t>3427525995</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44072.48318287037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1568,10 +1556,8 @@
           <t>3427525847</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:42</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44072.483125</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1643,10 +1629,8 @@
           <t>3427519790</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:37</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44072.48306712963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1718,10 +1702,8 @@
           <t>3425495350</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44072.48298611111</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1793,10 +1775,8 @@
           <t>3427519461</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:25</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44072.48292824074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1868,10 +1848,8 @@
           <t>3427523170</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44072.48289351852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1943,10 +1921,8 @@
           <t>3427523034</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:18</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44072.48284722222</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2018,10 +1994,8 @@
           <t>3427519132</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:35:14</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44072.48280092593</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2093,10 +2067,8 @@
           <t>3427376648</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:03:57</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44072.46107638889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2164,10 +2136,8 @@
           <t>3427372740</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-08-29 11:03:14</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44072.46057870371</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2235,10 +2205,8 @@
           <t>3424922508</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-08-29 10:02:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44072.41854166667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2310,10 +2278,8 @@
           <t>3426818134</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-08-29 08:30:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44072.35453703703</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2385,10 +2351,8 @@
           <t>3424917404</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-08-29 08:24:55</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44072.35063657408</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2460,10 +2424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-08-29 07:25:04</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44072.30907407407</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2535,10 +2497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-08-29 02:00:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44072.08335648148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2610,10 +2570,8 @@
           <t>3424610646</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:43:14</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44072.03002314815</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2681,10 +2639,8 @@
           <t>3425937417</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:33:38</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44072.02335648148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2760,10 +2716,8 @@
           <t>3425552763</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:33:29</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44072.02325231482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2839,10 +2793,8 @@
           <t>3424770167</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:29:40</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44072.02060185185</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2914,10 +2866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:21:15</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44072.01475694445</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2993,10 +2943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:17:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44072.0121412037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3064,10 +3012,8 @@
           <t>3425937417</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-08-28 23:57:34</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44071.99831018518</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3135,10 +3081,8 @@
           <t>3424582009</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-08-28 23:09:18</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44071.96479166667</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3206,10 +3150,8 @@
           <t>3424922508</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-08-28 23:02:35</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44071.96012731481</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3273,10 +3215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:59:34</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44071.9580324074</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3344,10 +3284,8 @@
           <t>3425552763</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:49:59</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44071.95137731481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3411,10 +3349,8 @@
           <t>3425495350</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:39:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44071.94391203704</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3486,10 +3422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:38:54</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44071.94368055555</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -3561,10 +3495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:37:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44071.94277777777</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3636,10 +3568,8 @@
           <t>3424610646</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:31:52</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44071.93879629629</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3707,10 +3637,8 @@
           <t>3425428507</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:29:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44071.93729166667</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3774,10 +3702,8 @@
           <t>3425323897</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:13:23</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44071.92596064815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3842,10 +3768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:10:40</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44071.92407407407</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3913,10 +3837,8 @@
           <t>3425302382</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:09:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44071.92309027778</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3980,10 +3902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-08-28 22:04:15</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44071.91961805556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4059,10 +3979,8 @@
           <t>3425201868</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:52:07</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44071.91119212963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4130,10 +4048,8 @@
           <t>3425102914</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:47:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44071.90766203704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4208,10 +4124,8 @@
           <t>3424698876</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:46:25</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44071.90723379629</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4275,10 +4189,8 @@
           <t>3425115707</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:38:42</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44071.901875</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4350,10 +4262,8 @@
           <t>3425102914</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:37:17</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44071.9008912037</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4425,10 +4335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:21:48</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44071.89013888889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4496,10 +4404,8 @@
           <t>3424582009</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:20:22</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44071.88914351852</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
@@ -4567,10 +4473,8 @@
           <t>3424917404</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:19:20</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44071.88842592593</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4646,10 +4550,8 @@
           <t>3424917404</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:15:57</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44071.88607638889</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4721,10 +4623,8 @@
           <t>3424886276</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:08:00</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44071.88055555556</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4788,10 +4688,8 @@
           <t>3424935346</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:07:28</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44071.88018518518</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4863,10 +4761,8 @@
           <t>3424926415</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:07:00</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44071.87986111111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4938,10 +4834,8 @@
           <t>3424930123</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:06:54</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44071.87979166667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5005,10 +4899,8 @@
           <t>3424922508</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:06:05</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44071.87922453704</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5080,10 +4972,8 @@
           <t>3424917404</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:05:32</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44071.8788425926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5155,10 +5045,8 @@
           <t>3424916916</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:05:18</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44071.87868055556</v>
       </c>
       <c r="I65" t="n">
         <v>15</v>
@@ -5227,10 +5115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:00:35</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44071.87540509259</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5302,10 +5188,8 @@
           <t>3424886276</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-08-28 21:00:01</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44071.87501157408</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5381,10 +5265,8 @@
           <t>3424821144</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:49:14</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44071.86752314815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5460,10 +5342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:49:05</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44071.86741898148</v>
       </c>
       <c r="I69" t="n">
         <v>4</v>
@@ -5523,10 +5403,8 @@
           <t>3424807303</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:47:13</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44071.86612268518</v>
       </c>
       <c r="I70" t="n">
         <v>10</v>
@@ -5590,10 +5468,8 @@
           <t>3424802919</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:45:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44071.86510416667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5657,10 +5533,8 @@
           <t>3424770167</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:44:52</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44071.86449074074</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5732,10 +5606,8 @@
           <t>3424788710</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:43:39</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44071.86364583333</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5811,10 +5683,8 @@
           <t>3424778669</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:42:52</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44071.86310185185</v>
       </c>
       <c r="I74" t="n">
         <v>8</v>
@@ -5874,10 +5744,8 @@
           <t>3424786651</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:42:38</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44071.86293981481</v>
       </c>
       <c r="I75" t="n">
         <v>7</v>
@@ -5937,10 +5805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:41:27</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44071.86211805556</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6004,10 +5870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:41:17</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44071.86200231482</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6083,10 +5947,8 @@
           <t>3424768938</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:40:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44071.8615162037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6161,10 +6023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:40:28</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44071.86143518519</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6239,10 +6099,8 @@
           <t>3424771855</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:40:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44071.86126157407</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6310,10 +6168,8 @@
           <t>3424770167</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:39:21</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44071.86065972222</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6381,10 +6237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:39:14</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44071.8605787037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6448,10 +6302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:39:08</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44071.86050925926</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -6527,10 +6379,8 @@
           <t>3424766129</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:39:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44071.86046296296</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6598,10 +6448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:38:38</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44071.86016203704</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6665,10 +6513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:38:35</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44071.86012731482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6736,10 +6582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:38:10</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44071.85983796296</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6807,10 +6651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:38:09</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44071.85982638889</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6882,10 +6724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:38:05</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44071.85978009259</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6953,10 +6793,8 @@
           <t>3424716568</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:37:48</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44071.85958333333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7032,10 +6870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:37:43</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44071.85952546296</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7107,10 +6943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:37:29</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44071.85936342592</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7178,10 +7012,8 @@
           <t>3424705110</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:37:26</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44071.8593287037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7249,10 +7081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:55</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44071.85896990741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7328,10 +7158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:53</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44071.85894675926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7399,10 +7227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:50</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44071.85891203704</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7472,10 +7298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44071.85887731481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7551,10 +7375,8 @@
           <t>3424746266</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:32</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44071.85870370371</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7630,10 +7452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:14</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44071.85849537037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7709,10 +7529,8 @@
           <t>3424743712</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:36:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44071.85844907408</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7780,10 +7598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44071.85824074074</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -7855,10 +7671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:47</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44071.85818287037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7926,10 +7740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:47</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44071.85818287037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8007,10 +7819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:39</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44071.85809027778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8082,10 +7892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:33</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44071.85802083334</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8149,10 +7957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:35:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44071.85784722222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8229,10 +8035,8 @@
           <t>3424740431</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:34:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44071.85736111111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8296,10 +8100,8 @@
           <t>3424723850</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:32:57</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44071.85621527778</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -8371,10 +8173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:31:54</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44071.85548611111</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8438,10 +8238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:31:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44071.85524305556</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8513,10 +8311,8 @@
           <t>3424716568</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:31:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44071.85512731481</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8580,10 +8376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:30:46</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44071.85469907407</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8647,10 +8441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:29:11</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44071.85359953704</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8718,10 +8510,8 @@
           <t>3424698876</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:28:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44071.85331018519</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8793,10 +8583,8 @@
           <t>3424705110</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:28:28</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44071.85310185186</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8868,10 +8656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:26:34</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44071.85178240741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8935,10 +8721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:26:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44071.85153935185</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9010,10 +8794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:25:22</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44071.85094907408</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9085,10 +8867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:24:41</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44071.85047453704</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9152,10 +8932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:24:27</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44071.8503125</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9227,10 +9005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:22:57</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44071.84927083334</v>
       </c>
       <c r="I121" t="n">
         <v>21</v>
@@ -9290,10 +9066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:22:54</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44071.84923611111</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9369,10 +9143,8 @@
           <t>3424656196</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:20:30</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44071.84756944444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9444,10 +9216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:20:11</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44071.84734953703</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9519,10 +9289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:20:11</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44071.84734953703</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9598,10 +9366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:18:29</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44071.84616898148</v>
       </c>
       <c r="I126" t="n">
         <v>35</v>
@@ -9677,10 +9443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:17:45</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44071.84565972222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9752,10 +9516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:16:36</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44071.84486111111</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9823,10 +9585,8 @@
           <t>3424625628</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:14:54</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44071.84368055555</v>
       </c>
       <c r="I129" t="n">
         <v>14</v>
@@ -9890,10 +9650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:12:58</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44071.84233796296</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9957,10 +9715,8 @@
           <t>3424610646</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:12:18</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44071.841875</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10028,10 +9784,8 @@
           <t>3424582009</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:07:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44071.83873842593</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -10100,10 +9854,8 @@
           <t>3424569465</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:06:31</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44071.83785879629</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10171,10 +9923,8 @@
           <t>3424558871</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:04:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44071.83675925926</v>
       </c>
       <c r="I134" t="n">
         <v>5</v>
@@ -10250,10 +10000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:03:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44071.83581018518</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10313,10 +10061,8 @@
           <t>3424534835</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:01:17</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44071.83422453704</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10384,10 +10130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:00:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44071.83385416667</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10451,10 +10195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:00:26</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44071.83363425926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10522,10 +10264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:00:24</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44071.83361111111</v>
       </c>
       <c r="I139" t="n">
         <v>29</v>
@@ -10593,10 +10333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44071.83331018518</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10672,10 +10410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:57</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44071.83329861111</v>
       </c>
       <c r="I141" t="n">
         <v>95</v>
@@ -10743,10 +10479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:56</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44071.83328703704</v>
       </c>
       <c r="I142" t="n">
         <v>6</v>
@@ -10814,10 +10548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44071.83326388889</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10885,10 +10617,8 @@
           <t>3424520412</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:47</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44071.83318287037</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10964,10 +10694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44071.83315972222</v>
       </c>
       <c r="I145" t="n">
         <v>12</v>
@@ -11031,10 +10759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:43</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44071.83313657407</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11106,10 +10832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:39</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44071.83309027777</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11185,10 +10909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:34</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44071.8330324074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11252,10 +10974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:23</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44071.83290509259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11323,10 +11043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:07</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44071.8327199074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11398,10 +11116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:59:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44071.83269675926</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11473,10 +11189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44071.83258101852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11552,10 +11266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:47</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44071.83248842593</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11627,10 +11339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:33</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44071.83232638889</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11702,10 +11412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:27</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44071.83225694444</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11777,10 +11485,8 @@
           <t>3424520412</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:23</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44071.83221064815</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11844,10 +11550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:10</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44071.83206018519</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11923,10 +11627,8 @@
           <t>3424514687</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:58:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44071.83197916667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11998,10 +11700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44071.83181712963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12069,10 +11769,8 @@
           <t>3424514126</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44071.83177083333</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12148,10 +11846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:43</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44071.83174768519</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12228,10 +11924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:41</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44071.83172453703</v>
       </c>
       <c r="I162" t="n">
         <v>6</v>
@@ -12307,10 +12001,8 @@
           <t>3424513489</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:26</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44071.83155092593</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12387,10 +12079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44071.83141203703</v>
       </c>
       <c r="I164" t="n">
         <v>205</v>
@@ -12462,10 +12152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:09</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44071.83135416666</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12529,10 +12217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:07</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44071.83133101852</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12596,10 +12282,8 @@
           <t>3424512682</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:57:00</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44071.83125</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12675,10 +12359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:56</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44071.8312037037</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12742,10 +12424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:53</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44071.83116898148</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12814,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:48</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44071.83111111111</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12894,10 +12572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44071.83107638889</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12961,10 +12637,8 @@
           <t>3424520412</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44071.83107638889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13040,10 +12714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44071.83101851852</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13119,10 +12791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:38</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44071.83099537037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13186,10 +12856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:37</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44071.8309837963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13249,10 +12917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:32</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44071.83092592593</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13324,10 +12990,8 @@
           <t>3424504935</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:31</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44071.83091435185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13399,10 +13063,8 @@
           <t>3424515128</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:28</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44071.83087962963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13478,10 +13140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44071.83082175926</v>
       </c>
       <c r="I179" t="n">
         <v>108</v>
@@ -13545,10 +13205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:23</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44071.83082175926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13616,10 +13274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:20</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44071.83078703703</v>
       </c>
       <c r="I181" t="n">
         <v>32</v>
@@ -13695,10 +13351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44071.83070601852</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13766,10 +13420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:11</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44071.83068287037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13837,10 +13489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:11</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44071.83068287037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13912,10 +13562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44071.83067129629</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13987,10 +13635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44071.83067129629</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14058,10 +13704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:09</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44071.83065972223</v>
       </c>
       <c r="I187" t="n">
         <v>35</v>
@@ -14129,10 +13773,8 @@
           <t>3424511094</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:09</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44071.83065972223</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14200,10 +13842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:07</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44071.83063657407</v>
       </c>
       <c r="I189" t="n">
         <v>204</v>
@@ -14271,10 +13911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:56:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44071.8305787037</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14338,10 +13976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:55:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44071.83053240741</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14413,10 +14049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:55:55</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44071.83049768519</v>
       </c>
       <c r="I192" t="n">
         <v>15</v>
